--- a/chapter03/darwin_notInRuleset_2.xlsx
+++ b/chapter03/darwin_notInRuleset_2.xlsx
@@ -23,16 +23,13 @@
     <t>dest_ip_end_int</t>
   </si>
   <si>
-    <t>json_services</t>
-  </si>
-  <si>
-    <t>dest_ip_cidr</t>
+    <t>dest_ip_type</t>
   </si>
   <si>
     <t>dest_ip_start</t>
   </si>
   <si>
-    <t>dest_ip_type</t>
+    <t>dest_ip_cidr</t>
   </si>
   <si>
     <t>dest_ip_end</t>
@@ -41,19 +38,22 @@
     <t>rule_name</t>
   </si>
   <si>
+    <t>json_services</t>
+  </si>
+  <si>
     <t>rule_number</t>
   </si>
   <si>
-    <t>["443/tcp"]</t>
+    <t>host</t>
   </si>
   <si>
     <t>139.25.227.144</t>
   </si>
   <si>
-    <t>host</t>
+    <t>e_SAP_ERP_S4P</t>
   </si>
   <si>
-    <t>e_SAP_ERP_S4P</t>
+    <t>["443/tcp"]</t>
   </si>
   <si>
     <t>373</t>
@@ -141,7 +141,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1269.0</v>
+        <v>1271.0</v>
       </c>
       <c r="B2" t="n">
         <v>2.33372968E9</v>
@@ -152,17 +152,17 @@
       <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="n">
         <v>32.0</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>11</v>
       </c>
       <c r="I2" t="s">
         <v>13</v>
